--- a/var_dict.xlsx
+++ b/var_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\EMR_LIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\EMR-LIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F87F9B-EB0D-4FF7-948E-443C84A5A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F099595-0695-4D44-9D9C-F8FEEBD2F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1992" windowWidth="10752" windowHeight="9000" xr2:uid="{29CEC26C-83DF-4492-812A-8E359B5A70D6}"/>
+    <workbookView xWindow="2760" yWindow="2244" windowWidth="10752" windowHeight="9000" xr2:uid="{29CEC26C-83DF-4492-812A-8E359B5A70D6}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +184,10 @@
   </si>
   <si>
     <t>locf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -596,39 +596,39 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>4.5</v>
@@ -648,103 +648,103 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <v>2.5</v>
@@ -781,10 +781,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,39 +792,39 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/var_dict.xlsx
+++ b/var_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\EMR-LIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F099595-0695-4D44-9D9C-F8FEEBD2F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC9944B-329A-4108-9DD3-18096290AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2244" windowWidth="10752" windowHeight="9000" xr2:uid="{29CEC26C-83DF-4492-812A-8E359B5A70D6}"/>
+    <workbookView xWindow="816" yWindow="2124" windowWidth="11676" windowHeight="7320" xr2:uid="{29CEC26C-83DF-4492-812A-8E359B5A70D6}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>value_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a|b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +184,26 @@
   </si>
   <si>
     <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b|c|d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF351F7F-BE15-4CDD-BC9B-8DE3EEDDC5CA}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -605,10 +621,10 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -616,19 +632,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -640,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2">
         <v>4.5</v>
@@ -651,25 +667,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,28 +696,28 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,25 +725,25 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -741,10 +760,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -756,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>2.5</v>
@@ -765,26 +784,26 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188D59B9-4844-4923-9B82-CBCCB37AFC99}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,7 +816,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -805,7 +824,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -813,7 +832,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -821,10 +840,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
